--- a/models/Multi_dimentional_data_covar/01_Projektion.xlsx
+++ b/models/Multi_dimentional_data_covar/01_Projektion.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-6585" yWindow="1605" windowWidth="15480" windowHeight="11010"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="92512"/>
+  <calcPr calcId="92512" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>CDU/CSU</t>
   </si>
@@ -55,6 +60,9 @@
   </si>
   <si>
     <t>27.01.2017</t>
+  </si>
+  <si>
+    <t>Datum</t>
   </si>
 </sst>
 </file>
@@ -131,11 +139,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -144,7 +152,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -152,22 +160,22 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -176,18 +184,18 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -246,7 +254,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -549,18 +557,18 @@
   <dimension ref="B1:L429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A413" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:G6"/>
+      <pane ySplit="9" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9">
       <c r="B1" s="18" t="s">
         <v>6</v>
       </c>
@@ -570,7 +578,7 @@
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9">
       <c r="B2" s="20" t="s">
         <v>7</v>
       </c>
@@ -580,7 +588,7 @@
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9">
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
@@ -588,7 +596,7 @@
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -596,7 +604,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="20" customHeight="1">
       <c r="B5" s="21" t="s">
         <v>5</v>
       </c>
@@ -607,7 +615,7 @@
       <c r="G5" s="23"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="20" customHeight="1">
       <c r="B6" s="24"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -616,7 +624,7 @@
       <c r="G6" s="26"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="17">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -625,7 +633,10 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>0</v>
       </c>
@@ -648,7 +659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9">
       <c r="B10" s="7">
         <v>33263</v>
       </c>
@@ -670,7 +681,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9">
       <c r="B11" s="7">
         <v>33284</v>
       </c>
@@ -692,7 +703,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9">
       <c r="B12" s="7">
         <v>33312</v>
       </c>
@@ -714,7 +725,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9">
       <c r="B13" s="7">
         <v>33354</v>
       </c>
@@ -736,7 +747,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9">
       <c r="B14" s="7">
         <v>33382</v>
       </c>
@@ -758,7 +769,7 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9">
       <c r="B15" s="7">
         <v>33403</v>
       </c>
@@ -780,7 +791,7 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9">
       <c r="B16" s="7">
         <v>33473</v>
       </c>
@@ -802,7 +813,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9">
       <c r="B17" s="7">
         <v>33508</v>
       </c>
@@ -824,7 +835,7 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9">
       <c r="B18" s="7">
         <v>33529</v>
       </c>
@@ -846,7 +857,7 @@
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9">
       <c r="B19" s="7">
         <v>33550</v>
       </c>
@@ -868,7 +879,7 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9">
       <c r="B20" s="7">
         <v>33585</v>
       </c>
@@ -890,7 +901,7 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9">
       <c r="B21" s="7">
         <v>33634</v>
       </c>
@@ -912,7 +923,7 @@
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9">
       <c r="B22" s="7">
         <v>33655</v>
       </c>
@@ -934,7 +945,7 @@
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9">
       <c r="B23" s="7">
         <v>33683</v>
       </c>
@@ -956,7 +967,7 @@
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9">
       <c r="B24" s="7">
         <v>33704</v>
       </c>
@@ -978,7 +989,7 @@
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9">
       <c r="B25" s="7">
         <v>33739</v>
       </c>
@@ -1000,7 +1011,7 @@
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9">
       <c r="B26" s="7">
         <v>33774</v>
       </c>
@@ -1022,7 +1033,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9">
       <c r="B27" s="7">
         <v>33795</v>
       </c>
@@ -1044,7 +1055,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9">
       <c r="B28" s="7">
         <v>33865</v>
       </c>
@@ -1066,7 +1077,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9">
       <c r="B29" s="7">
         <v>33893</v>
       </c>
@@ -1088,7 +1099,7 @@
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9">
       <c r="B30" s="7">
         <v>33921</v>
       </c>
@@ -1110,7 +1121,7 @@
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9">
       <c r="B31" s="7">
         <v>33949</v>
       </c>
@@ -1132,7 +1143,7 @@
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9">
       <c r="B32" s="7">
         <v>33991</v>
       </c>
@@ -1154,7 +1165,7 @@
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9">
       <c r="B33" s="7">
         <v>34019</v>
       </c>
@@ -1176,7 +1187,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9">
       <c r="B34" s="7">
         <v>34047</v>
       </c>
@@ -1198,7 +1209,7 @@
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9">
       <c r="B35" s="7">
         <v>34082</v>
       </c>
@@ -1220,7 +1231,7 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9">
       <c r="B36" s="7">
         <v>34103</v>
       </c>
@@ -1242,7 +1253,7 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9">
       <c r="B37" s="7">
         <v>34138</v>
       </c>
@@ -1264,7 +1275,7 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9">
       <c r="B38" s="7">
         <v>34159</v>
       </c>
@@ -1286,7 +1297,7 @@
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9">
       <c r="B39" s="7">
         <v>34236</v>
       </c>
@@ -1308,7 +1319,7 @@
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9">
       <c r="B40" s="7">
         <v>34257</v>
       </c>
@@ -1330,7 +1341,7 @@
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9">
       <c r="B41" s="7">
         <v>34285</v>
       </c>
@@ -1352,7 +1363,7 @@
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9">
       <c r="B42" s="7">
         <v>34313</v>
       </c>
@@ -1374,7 +1385,7 @@
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9">
       <c r="B43" s="7">
         <v>34355</v>
       </c>
@@ -1396,7 +1407,7 @@
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9">
       <c r="B44" s="7">
         <v>34390</v>
       </c>
@@ -1418,7 +1429,7 @@
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9">
       <c r="B45" s="7">
         <v>34418</v>
       </c>
@@ -1440,7 +1451,7 @@
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9">
       <c r="B46" s="7">
         <v>34446</v>
       </c>
@@ -1462,7 +1473,7 @@
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9">
       <c r="B47" s="7">
         <v>34474</v>
       </c>
@@ -1484,7 +1495,7 @@
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9">
       <c r="B48" s="7">
         <v>34509</v>
       </c>
@@ -1506,7 +1517,7 @@
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9">
       <c r="B49" s="7">
         <v>34572</v>
       </c>
@@ -1528,7 +1539,7 @@
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:9">
       <c r="B50" s="7">
         <v>34600</v>
       </c>
@@ -1550,7 +1561,7 @@
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9">
       <c r="B51" s="7">
         <v>34635</v>
       </c>
@@ -1572,7 +1583,7 @@
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:9">
       <c r="B52" s="7">
         <v>34663</v>
       </c>
@@ -1594,7 +1605,7 @@
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:9">
       <c r="B53" s="7">
         <v>34684</v>
       </c>
@@ -1616,7 +1627,7 @@
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9">
       <c r="B54" s="7">
         <v>34726</v>
       </c>
@@ -1638,7 +1649,7 @@
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:9">
       <c r="B55" s="7">
         <v>34754</v>
       </c>
@@ -1660,7 +1671,7 @@
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:9">
       <c r="B56" s="7">
         <v>34782</v>
       </c>
@@ -1682,7 +1693,7 @@
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:9">
       <c r="B57" s="7">
         <v>34817</v>
       </c>
@@ -1704,7 +1715,7 @@
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:9">
       <c r="B58" s="7">
         <v>34838</v>
       </c>
@@ -1726,7 +1737,7 @@
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:9">
       <c r="B59" s="7">
         <v>34873</v>
       </c>
@@ -1748,7 +1759,7 @@
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:9">
       <c r="B60" s="7">
         <v>34894</v>
       </c>
@@ -1770,7 +1781,7 @@
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:9">
       <c r="B61" s="7">
         <v>34957</v>
       </c>
@@ -1792,7 +1803,7 @@
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:9">
       <c r="B62" s="7">
         <v>34985</v>
       </c>
@@ -1814,7 +1825,7 @@
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:9">
       <c r="B63" s="7">
         <v>35020</v>
       </c>
@@ -1836,7 +1847,7 @@
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:9">
       <c r="B64" s="7">
         <v>35048</v>
       </c>
@@ -1858,7 +1869,7 @@
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:9">
       <c r="B65" s="7">
         <v>35083</v>
       </c>
@@ -1880,7 +1891,7 @@
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:9">
       <c r="B66" s="7">
         <v>35111</v>
       </c>
@@ -1902,7 +1913,7 @@
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:9">
       <c r="B67" s="7">
         <v>35139</v>
       </c>
@@ -1924,7 +1935,7 @@
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:9">
       <c r="B68" s="7">
         <v>35174</v>
       </c>
@@ -1946,7 +1957,7 @@
       <c r="H68" s="8"/>
       <c r="I68" s="8"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:9">
       <c r="B69" s="7">
         <v>35209</v>
       </c>
@@ -1968,7 +1979,7 @@
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:9">
       <c r="B70" s="7">
         <v>35237</v>
       </c>
@@ -1990,7 +2001,7 @@
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:9">
       <c r="B71" s="7">
         <v>35300</v>
       </c>
@@ -2012,7 +2023,7 @@
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:9">
       <c r="B72" s="7">
         <v>35328</v>
       </c>
@@ -2034,7 +2045,7 @@
       <c r="H72" s="8"/>
       <c r="I72" s="8"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:9">
       <c r="B73" s="7">
         <v>35356</v>
       </c>
@@ -2056,7 +2067,7 @@
       <c r="H73" s="8"/>
       <c r="I73" s="8"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:9">
       <c r="B74" s="7">
         <v>35384</v>
       </c>
@@ -2078,7 +2089,7 @@
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:9">
       <c r="B75" s="7">
         <v>35412</v>
       </c>
@@ -2100,7 +2111,7 @@
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:9">
       <c r="B76" s="7">
         <v>35447</v>
       </c>
@@ -2122,7 +2133,7 @@
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:9">
       <c r="B77" s="7">
         <v>35482</v>
       </c>
@@ -2144,7 +2155,7 @@
       <c r="H77" s="8"/>
       <c r="I77" s="8"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:9">
       <c r="B78" s="7">
         <v>35510</v>
       </c>
@@ -2166,7 +2177,7 @@
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:9">
       <c r="B79" s="7">
         <v>35538</v>
       </c>
@@ -2188,7 +2199,7 @@
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:9">
       <c r="B80" s="7">
         <v>35566</v>
       </c>
@@ -2210,7 +2221,7 @@
       <c r="H80" s="8"/>
       <c r="I80" s="8"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:9">
       <c r="B81" s="7">
         <v>35601</v>
       </c>
@@ -2232,7 +2243,7 @@
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:9">
       <c r="B82" s="7">
         <v>35671</v>
       </c>
@@ -2254,7 +2265,7 @@
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:9">
       <c r="B83" s="7">
         <v>35699</v>
       </c>
@@ -2276,7 +2287,7 @@
       <c r="H83" s="8"/>
       <c r="I83" s="8"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:9">
       <c r="B84" s="7">
         <v>35720</v>
       </c>
@@ -2298,7 +2309,7 @@
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:9">
       <c r="B85" s="7">
         <v>35748</v>
       </c>
@@ -2320,7 +2331,7 @@
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:9">
       <c r="B86" s="7">
         <v>35776</v>
       </c>
@@ -2342,7 +2353,7 @@
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:9">
       <c r="B87" s="7">
         <v>35811</v>
       </c>
@@ -2364,7 +2375,7 @@
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:9">
       <c r="B88" s="7">
         <v>35839</v>
       </c>
@@ -2386,7 +2397,7 @@
       <c r="H88" s="8"/>
       <c r="I88" s="8"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:9">
       <c r="B89" s="7">
         <v>35867</v>
       </c>
@@ -2408,7 +2419,7 @@
       <c r="H89" s="8"/>
       <c r="I89" s="8"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:9">
       <c r="B90" s="7">
         <v>35902</v>
       </c>
@@ -2430,7 +2441,7 @@
       <c r="H90" s="8"/>
       <c r="I90" s="8"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:9">
       <c r="B91" s="7">
         <v>35930</v>
       </c>
@@ -2452,7 +2463,7 @@
       <c r="H91" s="8"/>
       <c r="I91" s="8"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:9">
       <c r="B92" s="7">
         <v>35965</v>
       </c>
@@ -2474,7 +2485,7 @@
       <c r="H92" s="8"/>
       <c r="I92" s="8"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:9">
       <c r="B93" s="7">
         <v>35993</v>
       </c>
@@ -2496,7 +2507,7 @@
       <c r="H93" s="8"/>
       <c r="I93" s="8"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:9">
       <c r="B94" s="7">
         <v>36021</v>
       </c>
@@ -2518,7 +2529,7 @@
       <c r="H94" s="8"/>
       <c r="I94" s="8"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:9">
       <c r="B95" s="7">
         <v>36042</v>
       </c>
@@ -2540,7 +2551,7 @@
       <c r="H95" s="8"/>
       <c r="I95" s="8"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:9">
       <c r="B96" s="7">
         <v>36049</v>
       </c>
@@ -2562,7 +2573,7 @@
       <c r="H96" s="8"/>
       <c r="I96" s="8"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:9">
       <c r="B97" s="7">
         <v>36056</v>
       </c>
@@ -2584,7 +2595,7 @@
       <c r="H97" s="8"/>
       <c r="I97" s="8"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:9">
       <c r="B98" s="7">
         <v>36084</v>
       </c>
@@ -2606,7 +2617,7 @@
       <c r="H98" s="8"/>
       <c r="I98" s="8"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:9">
       <c r="B99" s="7">
         <v>36112</v>
       </c>
@@ -2628,7 +2639,7 @@
       <c r="H99" s="8"/>
       <c r="I99" s="8"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:9">
       <c r="B100" s="7">
         <v>36140</v>
       </c>
@@ -2650,7 +2661,7 @@
       <c r="H100" s="8"/>
       <c r="I100" s="8"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:9">
       <c r="B101" s="7">
         <v>36182</v>
       </c>
@@ -2672,7 +2683,7 @@
       <c r="H101" s="8"/>
       <c r="I101" s="8"/>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:9">
       <c r="B102" s="7">
         <v>36217</v>
       </c>
@@ -2694,7 +2705,7 @@
       <c r="H102" s="8"/>
       <c r="I102" s="8"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:9">
       <c r="B103" s="7">
         <v>36238</v>
       </c>
@@ -2716,7 +2727,7 @@
       <c r="H103" s="8"/>
       <c r="I103" s="8"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:9">
       <c r="B104" s="7">
         <v>36266</v>
       </c>
@@ -2738,7 +2749,7 @@
       <c r="H104" s="8"/>
       <c r="I104" s="8"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:9">
       <c r="B105" s="7">
         <v>36301</v>
       </c>
@@ -2760,7 +2771,7 @@
       <c r="H105" s="8"/>
       <c r="I105" s="8"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:9">
       <c r="B106" s="7">
         <v>36336</v>
       </c>
@@ -2782,7 +2793,7 @@
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:9">
       <c r="B107" s="7">
         <v>36364</v>
       </c>
@@ -2804,7 +2815,7 @@
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:9">
       <c r="B108" s="7">
         <v>36392</v>
       </c>
@@ -2826,7 +2837,7 @@
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:9">
       <c r="B109" s="7">
         <v>36427</v>
       </c>
@@ -2848,7 +2859,7 @@
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:9">
       <c r="B110" s="7">
         <v>36448</v>
       </c>
@@ -2870,7 +2881,7 @@
       <c r="H110" s="8"/>
       <c r="I110" s="8"/>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:9">
       <c r="B111" s="7">
         <v>36476</v>
       </c>
@@ -2892,7 +2903,7 @@
       <c r="H111" s="8"/>
       <c r="I111" s="8"/>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:9">
       <c r="B112" s="7">
         <v>36504</v>
       </c>
@@ -2914,7 +2925,7 @@
       <c r="H112" s="8"/>
       <c r="I112" s="8"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:9">
       <c r="B113" s="7">
         <v>36546</v>
       </c>
@@ -2936,7 +2947,7 @@
       <c r="H113" s="8"/>
       <c r="I113" s="8"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:9">
       <c r="B114" s="7">
         <v>36574</v>
       </c>
@@ -2958,7 +2969,7 @@
       <c r="H114" s="8"/>
       <c r="I114" s="8"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:9">
       <c r="B115" s="7">
         <v>36602</v>
       </c>
@@ -2980,7 +2991,7 @@
       <c r="H115" s="8"/>
       <c r="I115" s="8"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:9">
       <c r="B116" s="7">
         <v>36630</v>
       </c>
@@ -3002,7 +3013,7 @@
       <c r="H116" s="8"/>
       <c r="I116" s="8"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:9">
       <c r="B117" s="7">
         <v>36665</v>
       </c>
@@ -3024,7 +3035,7 @@
       <c r="H117" s="8"/>
       <c r="I117" s="8"/>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:9">
       <c r="B118" s="7">
         <v>36700</v>
       </c>
@@ -3046,7 +3057,7 @@
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:9">
       <c r="B119" s="7">
         <v>36735</v>
       </c>
@@ -3068,7 +3079,7 @@
       <c r="H119" s="8"/>
       <c r="I119" s="8"/>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:9">
       <c r="B120" s="7">
         <v>36763</v>
       </c>
@@ -3090,7 +3101,7 @@
       <c r="H120" s="8"/>
       <c r="I120" s="8"/>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:9">
       <c r="B121" s="7">
         <v>36791</v>
       </c>
@@ -3112,7 +3123,7 @@
       <c r="H121" s="8"/>
       <c r="I121" s="8"/>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:9">
       <c r="B122" s="7">
         <v>36819</v>
       </c>
@@ -3134,7 +3145,7 @@
       <c r="H122" s="8"/>
       <c r="I122" s="8"/>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:9">
       <c r="B123" s="7">
         <v>36847</v>
       </c>
@@ -3156,7 +3167,7 @@
       <c r="H123" s="8"/>
       <c r="I123" s="8"/>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:9">
       <c r="B124" s="7">
         <v>36875</v>
       </c>
@@ -3178,7 +3189,7 @@
       <c r="H124" s="8"/>
       <c r="I124" s="8"/>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:9">
       <c r="B125" s="7">
         <v>36910</v>
       </c>
@@ -3200,7 +3211,7 @@
       <c r="H125" s="8"/>
       <c r="I125" s="8"/>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:9">
       <c r="B126" s="7">
         <v>36938</v>
       </c>
@@ -3222,7 +3233,7 @@
       <c r="H126" s="8"/>
       <c r="I126" s="8"/>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:9">
       <c r="B127" s="7">
         <v>36966</v>
       </c>
@@ -3244,7 +3255,7 @@
       <c r="H127" s="8"/>
       <c r="I127" s="8"/>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:9">
       <c r="B128" s="7">
         <v>36987</v>
       </c>
@@ -3266,7 +3277,7 @@
       <c r="H128" s="8"/>
       <c r="I128" s="8"/>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:9">
       <c r="B129" s="7">
         <v>37029</v>
       </c>
@@ -3288,7 +3299,7 @@
       <c r="H129" s="8"/>
       <c r="I129" s="8"/>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:9">
       <c r="B130" s="7">
         <v>37064</v>
       </c>
@@ -3310,7 +3321,7 @@
       <c r="H130" s="8"/>
       <c r="I130" s="8"/>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:9">
       <c r="B131" s="7">
         <v>37092</v>
       </c>
@@ -3332,7 +3343,7 @@
       <c r="H131" s="8"/>
       <c r="I131" s="8"/>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:9">
       <c r="B132" s="7">
         <v>37127</v>
       </c>
@@ -3354,7 +3365,7 @@
       <c r="H132" s="8"/>
       <c r="I132" s="8"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:9">
       <c r="B133" s="7">
         <v>37148</v>
       </c>
@@ -3376,7 +3387,7 @@
       <c r="H133" s="8"/>
       <c r="I133" s="8"/>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:9">
       <c r="B134" s="7">
         <v>37176</v>
       </c>
@@ -3398,7 +3409,7 @@
       <c r="H134" s="8"/>
       <c r="I134" s="8"/>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:9">
       <c r="B135" s="7">
         <v>37211</v>
       </c>
@@ -3420,7 +3431,7 @@
       <c r="H135" s="8"/>
       <c r="I135" s="8"/>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:9">
       <c r="B136" s="7">
         <v>37239</v>
       </c>
@@ -3442,7 +3453,7 @@
       <c r="H136" s="8"/>
       <c r="I136" s="8"/>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:9">
       <c r="B137" s="7">
         <v>37267</v>
       </c>
@@ -3464,7 +3475,7 @@
       <c r="H137" s="8"/>
       <c r="I137" s="8"/>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:9">
       <c r="B138" s="7">
         <v>37274</v>
       </c>
@@ -3486,7 +3497,7 @@
       <c r="H138" s="8"/>
       <c r="I138" s="8"/>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:9">
       <c r="B139" s="7">
         <v>37295</v>
       </c>
@@ -3508,7 +3519,7 @@
       <c r="H139" s="8"/>
       <c r="I139" s="8"/>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:9">
       <c r="B140" s="7">
         <v>37309</v>
       </c>
@@ -3530,7 +3541,7 @@
       <c r="H140" s="8"/>
       <c r="I140" s="8"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:9">
       <c r="B141" s="7">
         <v>37323</v>
       </c>
@@ -3552,7 +3563,7 @@
       <c r="H141" s="8"/>
       <c r="I141" s="8"/>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:9">
       <c r="B142" s="7">
         <v>37337</v>
       </c>
@@ -3574,7 +3585,7 @@
       <c r="H142" s="8"/>
       <c r="I142" s="8"/>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:9">
       <c r="B143" s="7">
         <v>37358</v>
       </c>
@@ -3596,7 +3607,7 @@
       <c r="H143" s="8"/>
       <c r="I143" s="8"/>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:9">
       <c r="B144" s="7">
         <v>37372</v>
       </c>
@@ -3618,7 +3629,7 @@
       <c r="H144" s="8"/>
       <c r="I144" s="8"/>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:9">
       <c r="B145" s="7">
         <v>37386</v>
       </c>
@@ -3640,7 +3651,7 @@
       <c r="H145" s="8"/>
       <c r="I145" s="8"/>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:9">
       <c r="B146" s="7">
         <v>37407</v>
       </c>
@@ -3662,7 +3673,7 @@
       <c r="H146" s="8"/>
       <c r="I146" s="8"/>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:9">
       <c r="B147" s="7">
         <v>37421</v>
       </c>
@@ -3684,7 +3695,7 @@
       <c r="H147" s="8"/>
       <c r="I147" s="8"/>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:9">
       <c r="B148" s="7">
         <v>37435</v>
       </c>
@@ -3706,7 +3717,7 @@
       <c r="H148" s="8"/>
       <c r="I148" s="8"/>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:9">
       <c r="B149" s="7">
         <v>37449</v>
       </c>
@@ -3728,7 +3739,7 @@
       <c r="H149" s="8"/>
       <c r="I149" s="8"/>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:9">
       <c r="B150" s="7">
         <v>37463</v>
       </c>
@@ -3750,7 +3761,7 @@
       <c r="H150" s="8"/>
       <c r="I150" s="8"/>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:9">
       <c r="B151" s="7">
         <v>37477</v>
       </c>
@@ -3772,7 +3783,7 @@
       <c r="H151" s="8"/>
       <c r="I151" s="8"/>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:9">
       <c r="B152" s="7">
         <v>37484</v>
       </c>
@@ -3794,7 +3805,7 @@
       <c r="H152" s="8"/>
       <c r="I152" s="8"/>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:9">
       <c r="B153" s="7">
         <v>37491</v>
       </c>
@@ -3816,7 +3827,7 @@
       <c r="H153" s="8"/>
       <c r="I153" s="8"/>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:9">
       <c r="B154" s="7">
         <v>37498</v>
       </c>
@@ -3838,7 +3849,7 @@
       <c r="H154" s="8"/>
       <c r="I154" s="8"/>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:9">
       <c r="B155" s="7">
         <v>37505</v>
       </c>
@@ -3860,7 +3871,7 @@
       <c r="H155" s="8"/>
       <c r="I155" s="8"/>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:9">
       <c r="B156" s="7">
         <v>37512</v>
       </c>
@@ -3882,7 +3893,7 @@
       <c r="H156" s="8"/>
       <c r="I156" s="8"/>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:9">
       <c r="B157" s="7">
         <v>37547</v>
       </c>
@@ -3904,7 +3915,7 @@
       <c r="H157" s="8"/>
       <c r="I157" s="8"/>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:9">
       <c r="B158" s="7">
         <v>37575</v>
       </c>
@@ -3926,7 +3937,7 @@
       <c r="H158" s="8"/>
       <c r="I158" s="8"/>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:9">
       <c r="B159" s="7">
         <v>37603</v>
       </c>
@@ -3948,7 +3959,7 @@
       <c r="H159" s="8"/>
       <c r="I159" s="8"/>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:9">
       <c r="B160" s="7">
         <v>37645</v>
       </c>
@@ -3970,7 +3981,7 @@
       <c r="H160" s="8"/>
       <c r="I160" s="8"/>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:9">
       <c r="B161" s="7">
         <v>37659</v>
       </c>
@@ -3992,7 +4003,7 @@
       <c r="H161" s="8"/>
       <c r="I161" s="8"/>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:9">
       <c r="B162" s="7">
         <v>37673</v>
       </c>
@@ -4014,7 +4025,7 @@
       <c r="H162" s="8"/>
       <c r="I162" s="8"/>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:9">
       <c r="B163" s="7">
         <v>37694</v>
       </c>
@@ -4036,7 +4047,7 @@
       <c r="H163" s="8"/>
       <c r="I163" s="8"/>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:9">
       <c r="B164" s="7">
         <v>37708</v>
       </c>
@@ -4058,7 +4069,7 @@
       <c r="H164" s="8"/>
       <c r="I164" s="8"/>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:9">
       <c r="B165" s="7">
         <v>37722</v>
       </c>
@@ -4080,7 +4091,7 @@
       <c r="H165" s="8"/>
       <c r="I165" s="8"/>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:9">
       <c r="B166" s="7">
         <v>37743</v>
       </c>
@@ -4102,7 +4113,7 @@
       <c r="H166" s="8"/>
       <c r="I166" s="8"/>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:9">
       <c r="B167" s="7">
         <v>37757</v>
       </c>
@@ -4124,7 +4135,7 @@
       <c r="H167" s="8"/>
       <c r="I167" s="8"/>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:9">
       <c r="B168" s="7">
         <v>37778</v>
       </c>
@@ -4146,7 +4157,7 @@
       <c r="H168" s="8"/>
       <c r="I168" s="8"/>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:9">
       <c r="B169" s="7">
         <v>37799</v>
       </c>
@@ -4168,7 +4179,7 @@
       <c r="H169" s="8"/>
       <c r="I169" s="8"/>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:9">
       <c r="B170" s="7">
         <v>37820</v>
       </c>
@@ -4190,7 +4201,7 @@
       <c r="H170" s="8"/>
       <c r="I170" s="8"/>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:9">
       <c r="B171" s="7">
         <v>37855</v>
       </c>
@@ -4212,7 +4223,7 @@
       <c r="H171" s="8"/>
       <c r="I171" s="8"/>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:9">
       <c r="B172" s="7">
         <v>37876</v>
       </c>
@@ -4234,7 +4245,7 @@
       <c r="H172" s="8"/>
       <c r="I172" s="8"/>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:9">
       <c r="B173" s="7">
         <v>37904</v>
       </c>
@@ -4256,7 +4267,7 @@
       <c r="H173" s="8"/>
       <c r="I173" s="8"/>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:9">
       <c r="B174" s="7">
         <v>37918</v>
       </c>
@@ -4278,7 +4289,7 @@
       <c r="H174" s="8"/>
       <c r="I174" s="8"/>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:9">
       <c r="B175" s="7">
         <v>37939</v>
       </c>
@@ -4300,7 +4311,7 @@
       <c r="H175" s="8"/>
       <c r="I175" s="8"/>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:9">
       <c r="B176" s="7">
         <v>37953</v>
       </c>
@@ -4322,7 +4333,7 @@
       <c r="H176" s="8"/>
       <c r="I176" s="8"/>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:9">
       <c r="B177" s="7">
         <v>37967</v>
       </c>
@@ -4344,7 +4355,7 @@
       <c r="H177" s="8"/>
       <c r="I177" s="8"/>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:9">
       <c r="B178" s="7">
         <v>38002</v>
       </c>
@@ -4366,7 +4377,7 @@
       <c r="H178" s="8"/>
       <c r="I178" s="8"/>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:9">
       <c r="B179" s="7">
         <v>38030</v>
       </c>
@@ -4388,7 +4399,7 @@
       <c r="H179" s="8"/>
       <c r="I179" s="8"/>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:9">
       <c r="B180" s="7">
         <v>38051</v>
       </c>
@@ -4410,7 +4421,7 @@
       <c r="H180" s="8"/>
       <c r="I180" s="8"/>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:9">
       <c r="B181" s="7">
         <v>38065</v>
       </c>
@@ -4432,7 +4443,7 @@
       <c r="H181" s="8"/>
       <c r="I181" s="8"/>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:9">
       <c r="B182" s="7">
         <v>38079</v>
       </c>
@@ -4454,7 +4465,7 @@
       <c r="H182" s="8"/>
       <c r="I182" s="8"/>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:9">
       <c r="B183" s="7">
         <v>38100</v>
       </c>
@@ -4476,7 +4487,7 @@
       <c r="H183" s="8"/>
       <c r="I183" s="8"/>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:9">
       <c r="B184" s="7">
         <v>38121</v>
       </c>
@@ -4498,7 +4509,7 @@
       <c r="H184" s="8"/>
       <c r="I184" s="8"/>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:9">
       <c r="B185" s="7">
         <v>38135</v>
       </c>
@@ -4520,7 +4531,7 @@
       <c r="H185" s="8"/>
       <c r="I185" s="8"/>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:9">
       <c r="B186" s="7">
         <v>38163</v>
       </c>
@@ -4542,7 +4553,7 @@
       <c r="H186" s="8"/>
       <c r="I186" s="8"/>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:9">
       <c r="B187" s="7">
         <v>38177</v>
       </c>
@@ -4564,7 +4575,7 @@
       <c r="H187" s="8"/>
       <c r="I187" s="8"/>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:9">
       <c r="B188" s="7">
         <v>38191</v>
       </c>
@@ -4586,7 +4597,7 @@
       <c r="H188" s="8"/>
       <c r="I188" s="8"/>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:9">
       <c r="B189" s="7">
         <v>38226</v>
       </c>
@@ -4608,7 +4619,7 @@
       <c r="H189" s="8"/>
       <c r="I189" s="8"/>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:9">
       <c r="B190" s="7">
         <v>38254</v>
       </c>
@@ -4630,7 +4641,7 @@
       <c r="H190" s="8"/>
       <c r="I190" s="8"/>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:9">
       <c r="B191" s="7">
         <v>38275</v>
       </c>
@@ -4652,7 +4663,7 @@
       <c r="H191" s="8"/>
       <c r="I191" s="8"/>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:9">
       <c r="B192" s="7">
         <v>38289</v>
       </c>
@@ -4674,7 +4685,7 @@
       <c r="H192" s="8"/>
       <c r="I192" s="8"/>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:9">
       <c r="B193" s="7">
         <v>38303</v>
       </c>
@@ -4696,7 +4707,7 @@
       <c r="H193" s="8"/>
       <c r="I193" s="8"/>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:9">
       <c r="B194" s="7">
         <v>38317</v>
       </c>
@@ -4718,7 +4729,7 @@
       <c r="H194" s="8"/>
       <c r="I194" s="8"/>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:9">
       <c r="B195" s="7">
         <v>38331</v>
       </c>
@@ -4740,7 +4751,7 @@
       <c r="H195" s="8"/>
       <c r="I195" s="8"/>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:9">
       <c r="B196" s="7">
         <v>38366</v>
       </c>
@@ -4762,7 +4773,7 @@
       <c r="H196" s="8"/>
       <c r="I196" s="8"/>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:9">
       <c r="B197" s="7">
         <v>38380</v>
       </c>
@@ -4784,7 +4795,7 @@
       <c r="H197" s="8"/>
       <c r="I197" s="8"/>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:9">
       <c r="B198" s="7">
         <v>38408</v>
       </c>
@@ -4806,7 +4817,7 @@
       <c r="H198" s="8"/>
       <c r="I198" s="8"/>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:9">
       <c r="B199" s="7">
         <v>38429</v>
       </c>
@@ -4828,7 +4839,7 @@
       <c r="H199" s="8"/>
       <c r="I199" s="8"/>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:9">
       <c r="B200" s="7">
         <v>38457</v>
       </c>
@@ -4850,7 +4861,7 @@
       <c r="H200" s="8"/>
       <c r="I200" s="8"/>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:9">
       <c r="B201" s="7">
         <v>38471</v>
       </c>
@@ -4872,7 +4883,7 @@
       <c r="H201" s="8"/>
       <c r="I201" s="8"/>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:9">
       <c r="B202" s="7">
         <v>38499</v>
       </c>
@@ -4894,7 +4905,7 @@
       <c r="H202" s="8"/>
       <c r="I202" s="8"/>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:9">
       <c r="B203" s="7">
         <v>38513</v>
       </c>
@@ -4916,7 +4927,7 @@
       <c r="H203" s="8"/>
       <c r="I203" s="8"/>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:9">
       <c r="B204" s="7">
         <v>38527</v>
       </c>
@@ -4938,7 +4949,7 @@
       <c r="H204" s="8"/>
       <c r="I204" s="8"/>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:9">
       <c r="B205" s="7">
         <v>38541</v>
       </c>
@@ -4960,7 +4971,7 @@
       <c r="H205" s="8"/>
       <c r="I205" s="8"/>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:9">
       <c r="B206" s="7">
         <v>38555</v>
       </c>
@@ -4982,7 +4993,7 @@
       <c r="H206" s="8"/>
       <c r="I206" s="8"/>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:9">
       <c r="B207" s="7">
         <v>38569</v>
       </c>
@@ -5004,7 +5015,7 @@
       <c r="H207" s="8"/>
       <c r="I207" s="8"/>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:9">
       <c r="B208" s="7">
         <v>38576</v>
       </c>
@@ -5026,7 +5037,7 @@
       <c r="H208" s="8"/>
       <c r="I208" s="8"/>
     </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:9">
       <c r="B209" s="7">
         <v>38583</v>
       </c>
@@ -5048,7 +5059,7 @@
       <c r="H209" s="8"/>
       <c r="I209" s="8"/>
     </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:9">
       <c r="B210" s="7">
         <v>38590</v>
       </c>
@@ -5070,7 +5081,7 @@
       <c r="H210" s="8"/>
       <c r="I210" s="8"/>
     </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:9">
       <c r="B211" s="7">
         <v>38597</v>
       </c>
@@ -5092,7 +5103,7 @@
       <c r="H211" s="8"/>
       <c r="I211" s="8"/>
     </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:9">
       <c r="B212" s="7">
         <v>38604</v>
       </c>
@@ -5114,7 +5125,7 @@
       <c r="H212" s="8"/>
       <c r="I212" s="8"/>
     </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:9">
       <c r="B213" s="7">
         <v>38618</v>
       </c>
@@ -5136,7 +5147,7 @@
       <c r="H213" s="8"/>
       <c r="I213" s="8"/>
     </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:9">
       <c r="B214" s="7">
         <v>38632</v>
       </c>
@@ -5158,7 +5169,7 @@
       <c r="H214" s="8"/>
       <c r="I214" s="8"/>
     </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:9">
       <c r="B215" s="7">
         <v>38639</v>
       </c>
@@ -5180,7 +5191,7 @@
       <c r="H215" s="8"/>
       <c r="I215" s="8"/>
     </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:9">
       <c r="B216" s="7">
         <v>38653</v>
       </c>
@@ -5202,7 +5213,7 @@
       <c r="H216" s="8"/>
       <c r="I216" s="8"/>
     </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:9">
       <c r="B217" s="7">
         <v>38667</v>
       </c>
@@ -5224,7 +5235,7 @@
       <c r="H217" s="8"/>
       <c r="I217" s="8"/>
     </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:9">
       <c r="B218" s="7">
         <v>38681</v>
       </c>
@@ -5246,7 +5257,7 @@
       <c r="H218" s="8"/>
       <c r="I218" s="8"/>
     </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:9">
       <c r="B219" s="7">
         <v>38695</v>
       </c>
@@ -5268,7 +5279,7 @@
       <c r="H219" s="8"/>
       <c r="I219" s="8"/>
     </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:9">
       <c r="B220" s="7">
         <v>38730</v>
       </c>
@@ -5290,7 +5301,7 @@
       <c r="H220" s="8"/>
       <c r="I220" s="8"/>
     </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:9">
       <c r="B221" s="7">
         <v>38744</v>
       </c>
@@ -5312,7 +5323,7 @@
       <c r="H221" s="8"/>
       <c r="I221" s="8"/>
     </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:9">
       <c r="B222" s="7">
         <v>38765</v>
       </c>
@@ -5334,7 +5345,7 @@
       <c r="H222" s="8"/>
       <c r="I222" s="8"/>
     </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:9">
       <c r="B223" s="7">
         <v>38786</v>
       </c>
@@ -5356,7 +5367,7 @@
       <c r="H223" s="8"/>
       <c r="I223" s="8"/>
     </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:9">
       <c r="B224" s="7">
         <v>38814</v>
       </c>
@@ -5378,7 +5389,7 @@
       <c r="H224" s="8"/>
       <c r="I224" s="8"/>
     </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:9">
       <c r="B225" s="7">
         <v>38835</v>
       </c>
@@ -5400,7 +5411,7 @@
       <c r="H225" s="8"/>
       <c r="I225" s="8"/>
     </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:9">
       <c r="B226" s="7">
         <v>38856</v>
       </c>
@@ -5422,7 +5433,7 @@
       <c r="H226" s="8"/>
       <c r="I226" s="8"/>
     </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:9">
       <c r="B227" s="7">
         <v>38884</v>
       </c>
@@ -5444,7 +5455,7 @@
       <c r="H227" s="8"/>
       <c r="I227" s="8"/>
     </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:9">
       <c r="B228" s="7">
         <v>38912</v>
       </c>
@@ -5466,7 +5477,7 @@
       <c r="H228" s="8"/>
       <c r="I228" s="8"/>
     </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:9">
       <c r="B229" s="7">
         <v>38947</v>
       </c>
@@ -5488,7 +5499,7 @@
       <c r="H229" s="8"/>
       <c r="I229" s="8"/>
     </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:9">
       <c r="B230" s="7">
         <v>38961</v>
       </c>
@@ -5510,7 +5521,7 @@
       <c r="H230" s="8"/>
       <c r="I230" s="8"/>
     </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:9">
       <c r="B231" s="7">
         <v>38989</v>
       </c>
@@ -5532,7 +5543,7 @@
       <c r="H231" s="8"/>
       <c r="I231" s="8"/>
     </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:9">
       <c r="B232" s="7">
         <v>39003</v>
       </c>
@@ -5554,7 +5565,7 @@
       <c r="H232" s="8"/>
       <c r="I232" s="8"/>
     </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:9">
       <c r="B233" s="7">
         <v>39017</v>
       </c>
@@ -5576,7 +5587,7 @@
       <c r="H233" s="8"/>
       <c r="I233" s="8"/>
     </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:9">
       <c r="B234" s="7">
         <v>39031</v>
       </c>
@@ -5598,7 +5609,7 @@
       <c r="H234" s="8"/>
       <c r="I234" s="8"/>
     </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:9">
       <c r="B235" s="7">
         <v>39045</v>
       </c>
@@ -5620,7 +5631,7 @@
       <c r="H235" s="8"/>
       <c r="I235" s="8"/>
     </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:9">
       <c r="B236" s="7">
         <v>39066</v>
       </c>
@@ -5642,7 +5653,7 @@
       <c r="H236" s="8"/>
       <c r="I236" s="8"/>
     </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:9">
       <c r="B237" s="7">
         <v>39094</v>
       </c>
@@ -5664,7 +5675,7 @@
       <c r="H237" s="8"/>
       <c r="I237" s="8"/>
     </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:9">
       <c r="B238" s="7">
         <v>39122</v>
       </c>
@@ -5686,7 +5697,7 @@
       <c r="H238" s="8"/>
       <c r="I238" s="8"/>
     </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:9">
       <c r="B239" s="7">
         <v>39143</v>
       </c>
@@ -5708,7 +5719,7 @@
       <c r="H239" s="8"/>
       <c r="I239" s="8"/>
     </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:9">
       <c r="B240" s="7">
         <v>39157</v>
       </c>
@@ -5730,7 +5741,7 @@
       <c r="H240" s="8"/>
       <c r="I240" s="8"/>
     </row>
-    <row r="241" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:9">
       <c r="B241" s="7">
         <v>39171</v>
       </c>
@@ -5752,7 +5763,7 @@
       <c r="H241" s="8"/>
       <c r="I241" s="8"/>
     </row>
-    <row r="242" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:9">
       <c r="B242" s="7">
         <v>39192</v>
       </c>
@@ -5774,7 +5785,7 @@
       <c r="H242" s="8"/>
       <c r="I242" s="8"/>
     </row>
-    <row r="243" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:9">
       <c r="B243" s="7">
         <v>39220</v>
       </c>
@@ -5796,7 +5807,7 @@
       <c r="H243" s="8"/>
       <c r="I243" s="8"/>
     </row>
-    <row r="244" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:9">
       <c r="B244" s="7">
         <v>39234</v>
       </c>
@@ -5818,7 +5829,7 @@
       <c r="H244" s="8"/>
       <c r="I244" s="8"/>
     </row>
-    <row r="245" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:9">
       <c r="B245" s="7">
         <v>39255</v>
       </c>
@@ -5840,7 +5851,7 @@
       <c r="H245" s="8"/>
       <c r="I245" s="8"/>
     </row>
-    <row r="246" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:9">
       <c r="B246" s="7">
         <v>39283</v>
       </c>
@@ -5862,7 +5873,7 @@
       <c r="H246" s="8"/>
       <c r="I246" s="8"/>
     </row>
-    <row r="247" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:9">
       <c r="B247" s="7">
         <v>39311</v>
       </c>
@@ -5884,7 +5895,7 @@
       <c r="H247" s="8"/>
       <c r="I247" s="8"/>
     </row>
-    <row r="248" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:9">
       <c r="B248" s="7">
         <v>39339</v>
       </c>
@@ -5906,7 +5917,7 @@
       <c r="H248" s="8"/>
       <c r="I248" s="8"/>
     </row>
-    <row r="249" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:9">
       <c r="B249" s="7">
         <v>39360</v>
       </c>
@@ -5928,7 +5939,7 @@
       <c r="H249" s="8"/>
       <c r="I249" s="8"/>
     </row>
-    <row r="250" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:9">
       <c r="B250" s="7">
         <v>39374</v>
       </c>
@@ -5950,7 +5961,7 @@
       <c r="H250" s="8"/>
       <c r="I250" s="8"/>
     </row>
-    <row r="251" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:9">
       <c r="B251" s="7">
         <v>39395</v>
       </c>
@@ -5972,7 +5983,7 @@
       <c r="H251" s="8"/>
       <c r="I251" s="8"/>
     </row>
-    <row r="252" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:9">
       <c r="B252" s="7">
         <v>39409</v>
       </c>
@@ -5994,7 +6005,7 @@
       <c r="H252" s="8"/>
       <c r="I252" s="8"/>
     </row>
-    <row r="253" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:9">
       <c r="B253" s="7">
         <v>39430</v>
       </c>
@@ -6016,7 +6027,7 @@
       <c r="H253" s="8"/>
       <c r="I253" s="8"/>
     </row>
-    <row r="254" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:9">
       <c r="B254" s="7">
         <v>39458</v>
       </c>
@@ -6038,7 +6049,7 @@
       <c r="H254" s="8"/>
       <c r="I254" s="8"/>
     </row>
-    <row r="255" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:9">
       <c r="B255" s="7">
         <v>39486</v>
       </c>
@@ -6060,7 +6071,7 @@
       <c r="H255" s="8"/>
       <c r="I255" s="8"/>
     </row>
-    <row r="256" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:9">
       <c r="B256" s="7">
         <v>39507</v>
       </c>
@@ -6082,7 +6093,7 @@
       <c r="H256" s="8"/>
       <c r="I256" s="8"/>
     </row>
-    <row r="257" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:9">
       <c r="B257" s="7">
         <v>39521</v>
       </c>
@@ -6104,7 +6115,7 @@
       <c r="H257" s="8"/>
       <c r="I257" s="8"/>
     </row>
-    <row r="258" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:9">
       <c r="B258" s="7">
         <v>39542</v>
       </c>
@@ -6126,7 +6137,7 @@
       <c r="H258" s="8"/>
       <c r="I258" s="8"/>
     </row>
-    <row r="259" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:9">
       <c r="B259" s="7">
         <v>39556</v>
       </c>
@@ -6148,7 +6159,7 @@
       <c r="H259" s="8"/>
       <c r="I259" s="8"/>
     </row>
-    <row r="260" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:9">
       <c r="B260" s="7">
         <v>39577</v>
       </c>
@@ -6170,7 +6181,7 @@
       <c r="H260" s="8"/>
       <c r="I260" s="8"/>
     </row>
-    <row r="261" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:9">
       <c r="B261" s="7">
         <v>39598</v>
       </c>
@@ -6192,7 +6203,7 @@
       <c r="H261" s="8"/>
       <c r="I261" s="8"/>
     </row>
-    <row r="262" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:9">
       <c r="B262" s="7">
         <v>39612</v>
       </c>
@@ -6214,7 +6225,7 @@
       <c r="H262" s="8"/>
       <c r="I262" s="8"/>
     </row>
-    <row r="263" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:9">
       <c r="B263" s="7">
         <v>39640</v>
       </c>
@@ -6236,7 +6247,7 @@
       <c r="H263" s="8"/>
       <c r="I263" s="8"/>
     </row>
-    <row r="264" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:9">
       <c r="B264" s="7">
         <v>39675</v>
       </c>
@@ -6258,7 +6269,7 @@
       <c r="H264" s="8"/>
       <c r="I264" s="8"/>
     </row>
-    <row r="265" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:9">
       <c r="B265" s="7">
         <v>39703</v>
       </c>
@@ -6280,7 +6291,7 @@
       <c r="H265" s="8"/>
       <c r="I265" s="8"/>
     </row>
-    <row r="266" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:9">
       <c r="B266" s="7">
         <v>39731</v>
       </c>
@@ -6302,7 +6313,7 @@
       <c r="H266" s="8"/>
       <c r="I266" s="8"/>
     </row>
-    <row r="267" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:9">
       <c r="B267" s="7">
         <v>39745</v>
       </c>
@@ -6324,7 +6335,7 @@
       <c r="H267" s="8"/>
       <c r="I267" s="8"/>
     </row>
-    <row r="268" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:9">
       <c r="B268" s="7">
         <v>39759</v>
       </c>
@@ -6346,7 +6357,7 @@
       <c r="H268" s="8"/>
       <c r="I268" s="8"/>
     </row>
-    <row r="269" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:9">
       <c r="B269" s="7">
         <v>39773</v>
       </c>
@@ -6368,7 +6379,7 @@
       <c r="H269" s="8"/>
       <c r="I269" s="8"/>
     </row>
-    <row r="270" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:9">
       <c r="B270" s="7">
         <v>39794</v>
       </c>
@@ -6390,7 +6401,7 @@
       <c r="H270" s="8"/>
       <c r="I270" s="8"/>
     </row>
-    <row r="271" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:9">
       <c r="B271" s="7">
         <v>39822</v>
       </c>
@@ -6412,7 +6423,7 @@
       <c r="H271" s="8"/>
       <c r="I271" s="8"/>
     </row>
-    <row r="272" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:9">
       <c r="B272" s="7">
         <v>39843</v>
       </c>
@@ -6434,7 +6445,7 @@
       <c r="H272" s="8"/>
       <c r="I272" s="8"/>
     </row>
-    <row r="273" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:9">
       <c r="B273" s="7">
         <v>39857</v>
       </c>
@@ -6456,7 +6467,7 @@
       <c r="H273" s="8"/>
       <c r="I273" s="8"/>
     </row>
-    <row r="274" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:9">
       <c r="B274" s="7">
         <v>39878</v>
       </c>
@@ -6478,7 +6489,7 @@
       <c r="H274" s="8"/>
       <c r="I274" s="8"/>
     </row>
-    <row r="275" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:9">
       <c r="B275" s="7">
         <v>39899</v>
       </c>
@@ -6500,7 +6511,7 @@
       <c r="H275" s="8"/>
       <c r="I275" s="8"/>
     </row>
-    <row r="276" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:9">
       <c r="B276" s="7">
         <v>39927</v>
       </c>
@@ -6522,7 +6533,7 @@
       <c r="H276" s="8"/>
       <c r="I276" s="8"/>
     </row>
-    <row r="277" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:9">
       <c r="B277" s="7">
         <v>39941</v>
       </c>
@@ -6544,7 +6555,7 @@
       <c r="H277" s="8"/>
       <c r="I277" s="8"/>
     </row>
-    <row r="278" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:9">
       <c r="B278" s="7">
         <v>39962</v>
       </c>
@@ -6566,7 +6577,7 @@
       <c r="H278" s="8"/>
       <c r="I278" s="8"/>
     </row>
-    <row r="279" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:9">
       <c r="B279" s="7">
         <v>39976</v>
       </c>
@@ -6588,7 +6599,7 @@
       <c r="H279" s="8"/>
       <c r="I279" s="8"/>
     </row>
-    <row r="280" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:9">
       <c r="B280" s="7">
         <v>39997</v>
       </c>
@@ -6610,7 +6621,7 @@
       <c r="H280" s="8"/>
       <c r="I280" s="8"/>
     </row>
-    <row r="281" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:9">
       <c r="B281" s="7">
         <v>40018</v>
       </c>
@@ -6632,7 +6643,7 @@
       <c r="H281" s="8"/>
       <c r="I281" s="8"/>
     </row>
-    <row r="282" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:9">
       <c r="B282" s="7">
         <v>40032</v>
       </c>
@@ -6654,7 +6665,7 @@
       <c r="H282" s="8"/>
       <c r="I282" s="8"/>
     </row>
-    <row r="283" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:9">
       <c r="B283" s="7">
         <v>40046</v>
       </c>
@@ -6676,7 +6687,7 @@
       <c r="H283" s="8"/>
       <c r="I283" s="8"/>
     </row>
-    <row r="284" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:9">
       <c r="B284" s="7">
         <v>40053</v>
       </c>
@@ -6698,7 +6709,7 @@
       <c r="H284" s="8"/>
       <c r="I284" s="8"/>
     </row>
-    <row r="285" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:9">
       <c r="B285" s="7">
         <v>40060</v>
       </c>
@@ -6720,7 +6731,7 @@
       <c r="H285" s="8"/>
       <c r="I285" s="8"/>
     </row>
-    <row r="286" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:9">
       <c r="B286" s="7">
         <v>40067</v>
       </c>
@@ -6742,7 +6753,7 @@
       <c r="H286" s="8"/>
       <c r="I286" s="8"/>
     </row>
-    <row r="287" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:9">
       <c r="B287" s="7">
         <v>40074</v>
       </c>
@@ -6764,7 +6775,7 @@
       <c r="H287" s="8"/>
       <c r="I287" s="8"/>
     </row>
-    <row r="288" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:9">
       <c r="B288" s="7">
         <v>40088</v>
       </c>
@@ -6786,7 +6797,7 @@
       <c r="H288" s="8"/>
       <c r="I288" s="8"/>
     </row>
-    <row r="289" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:9">
       <c r="B289" s="7">
         <v>40102</v>
       </c>
@@ -6808,7 +6819,7 @@
       <c r="H289" s="8"/>
       <c r="I289" s="8"/>
     </row>
-    <row r="290" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:9">
       <c r="B290" s="7">
         <v>40116</v>
       </c>
@@ -6830,7 +6841,7 @@
       <c r="H290" s="8"/>
       <c r="I290" s="8"/>
     </row>
-    <row r="291" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:9">
       <c r="B291" s="7">
         <v>40144</v>
       </c>
@@ -6852,7 +6863,7 @@
       <c r="H291" s="8"/>
       <c r="I291" s="8"/>
     </row>
-    <row r="292" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:9">
       <c r="B292" s="7">
         <v>40158</v>
       </c>
@@ -6874,7 +6885,7 @@
       <c r="H292" s="8"/>
       <c r="I292" s="8"/>
     </row>
-    <row r="293" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:9">
       <c r="B293" s="7">
         <v>40193</v>
       </c>
@@ -6896,7 +6907,7 @@
       <c r="H293" s="8"/>
       <c r="I293" s="8"/>
     </row>
-    <row r="294" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:9">
       <c r="B294" s="7">
         <v>40207</v>
       </c>
@@ -6918,7 +6929,7 @@
       <c r="H294" s="8"/>
       <c r="I294" s="8"/>
     </row>
-    <row r="295" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:9">
       <c r="B295" s="7">
         <v>40235</v>
       </c>
@@ -6940,7 +6951,7 @@
       <c r="H295" s="8"/>
       <c r="I295" s="8"/>
     </row>
-    <row r="296" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:9">
       <c r="B296" s="7">
         <v>40249</v>
       </c>
@@ -6962,7 +6973,7 @@
       <c r="H296" s="8"/>
       <c r="I296" s="8"/>
     </row>
-    <row r="297" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:9">
       <c r="B297" s="7">
         <v>40263</v>
       </c>
@@ -6984,7 +6995,7 @@
       <c r="H297" s="8"/>
       <c r="I297" s="8"/>
     </row>
-    <row r="298" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:9">
       <c r="B298" s="7">
         <v>40291</v>
       </c>
@@ -7006,7 +7017,7 @@
       <c r="H298" s="8"/>
       <c r="I298" s="8"/>
     </row>
-    <row r="299" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:9">
       <c r="B299" s="7">
         <v>40319</v>
       </c>
@@ -7028,7 +7039,7 @@
       <c r="H299" s="8"/>
       <c r="I299" s="8"/>
     </row>
-    <row r="300" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:9">
       <c r="B300" s="7">
         <v>40333</v>
       </c>
@@ -7050,7 +7061,7 @@
       <c r="H300" s="8"/>
       <c r="I300" s="8"/>
     </row>
-    <row r="301" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:9">
       <c r="B301" s="7">
         <v>40347</v>
       </c>
@@ -7072,7 +7083,7 @@
       <c r="H301" s="8"/>
       <c r="I301" s="8"/>
     </row>
-    <row r="302" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:9">
       <c r="B302" s="7">
         <v>40375</v>
       </c>
@@ -7094,7 +7105,7 @@
       <c r="H302" s="8"/>
       <c r="I302" s="8"/>
     </row>
-    <row r="303" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:9">
       <c r="B303" s="7">
         <v>40417</v>
       </c>
@@ -7116,7 +7127,7 @@
       <c r="H303" s="8"/>
       <c r="I303" s="8"/>
     </row>
-    <row r="304" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:9">
       <c r="B304" s="7">
         <v>40431</v>
       </c>
@@ -7138,7 +7149,7 @@
       <c r="H304" s="8"/>
       <c r="I304" s="8"/>
     </row>
-    <row r="305" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:9">
       <c r="B305" s="7">
         <v>40445</v>
       </c>
@@ -7160,7 +7171,7 @@
       <c r="H305" s="8"/>
       <c r="I305" s="8"/>
     </row>
-    <row r="306" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:9">
       <c r="B306" s="7">
         <v>40452</v>
       </c>
@@ -7182,7 +7193,7 @@
       <c r="H306" s="8"/>
       <c r="I306" s="8"/>
     </row>
-    <row r="307" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:9">
       <c r="B307" s="7">
         <v>40473</v>
       </c>
@@ -7204,7 +7215,7 @@
       <c r="H307" s="8"/>
       <c r="I307" s="8"/>
     </row>
-    <row r="308" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:9">
       <c r="B308" s="7">
         <v>40494</v>
       </c>
@@ -7226,7 +7237,7 @@
       <c r="H308" s="8"/>
       <c r="I308" s="8"/>
     </row>
-    <row r="309" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:9">
       <c r="B309" s="7">
         <v>40515</v>
       </c>
@@ -7248,7 +7259,7 @@
       <c r="H309" s="8"/>
       <c r="I309" s="8"/>
     </row>
-    <row r="310" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:9">
       <c r="B310" s="7">
         <v>40529</v>
       </c>
@@ -7270,7 +7281,7 @@
       <c r="H310" s="8"/>
       <c r="I310" s="8"/>
     </row>
-    <row r="311" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:9">
       <c r="B311" s="7">
         <v>40557</v>
       </c>
@@ -7292,7 +7303,7 @@
       <c r="H311" s="8"/>
       <c r="I311" s="8"/>
     </row>
-    <row r="312" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:9">
       <c r="B312" s="7">
         <v>40571</v>
       </c>
@@ -7314,7 +7325,7 @@
       <c r="H312" s="8"/>
       <c r="I312" s="8"/>
     </row>
-    <row r="313" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:9">
       <c r="B313" s="7">
         <v>40585</v>
       </c>
@@ -7336,7 +7347,7 @@
       <c r="H313" s="8"/>
       <c r="I313" s="8"/>
     </row>
-    <row r="314" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:9">
       <c r="B314" s="7">
         <v>40599</v>
       </c>
@@ -7358,7 +7369,7 @@
       <c r="H314" s="8"/>
       <c r="I314" s="8"/>
     </row>
-    <row r="315" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:9">
       <c r="B315" s="7">
         <v>40634</v>
       </c>
@@ -7380,7 +7391,7 @@
       <c r="H315" s="8"/>
       <c r="I315" s="8"/>
     </row>
-    <row r="316" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:9">
       <c r="B316" s="7">
         <v>40648</v>
       </c>
@@ -7402,7 +7413,7 @@
       <c r="H316" s="8"/>
       <c r="I316" s="8"/>
     </row>
-    <row r="317" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:9">
       <c r="B317" s="7">
         <v>40669</v>
       </c>
@@ -7424,7 +7435,7 @@
       <c r="H317" s="8"/>
       <c r="I317" s="8"/>
     </row>
-    <row r="318" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:9">
       <c r="B318" s="7">
         <v>40690</v>
       </c>
@@ -7446,7 +7457,7 @@
       <c r="H318" s="8"/>
       <c r="I318" s="8"/>
     </row>
-    <row r="319" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:9">
       <c r="B319" s="7">
         <v>40704</v>
       </c>
@@ -7468,7 +7479,7 @@
       <c r="H319" s="8"/>
       <c r="I319" s="8"/>
     </row>
-    <row r="320" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:9">
       <c r="B320" s="7">
         <v>40739</v>
       </c>
@@ -7490,7 +7501,7 @@
       <c r="H320" s="8"/>
       <c r="I320" s="8"/>
     </row>
-    <row r="321" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:12">
       <c r="B321" s="7">
         <v>40767</v>
       </c>
@@ -7512,7 +7523,7 @@
       <c r="H321" s="8"/>
       <c r="I321" s="8"/>
     </row>
-    <row r="322" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:12">
       <c r="B322" s="7">
         <v>40795</v>
       </c>
@@ -7534,7 +7545,7 @@
       <c r="H322" s="8"/>
       <c r="I322" s="8"/>
     </row>
-    <row r="323" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:12">
       <c r="B323" s="7">
         <v>40809</v>
       </c>
@@ -7558,7 +7569,7 @@
       </c>
       <c r="I323" s="8"/>
     </row>
-    <row r="324" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:12">
       <c r="B324" s="7">
         <v>40830</v>
       </c>
@@ -7582,7 +7593,7 @@
       </c>
       <c r="I324" s="8"/>
     </row>
-    <row r="325" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:12">
       <c r="B325" s="7">
         <v>40844</v>
       </c>
@@ -7606,7 +7617,7 @@
       </c>
       <c r="I325" s="8"/>
     </row>
-    <row r="326" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:12">
       <c r="B326" s="7">
         <v>40858</v>
       </c>
@@ -7630,7 +7641,7 @@
       </c>
       <c r="I326" s="8"/>
     </row>
-    <row r="327" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:12">
       <c r="B327" s="7">
         <v>40872</v>
       </c>
@@ -7654,7 +7665,7 @@
       </c>
       <c r="I327" s="8"/>
     </row>
-    <row r="328" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:12">
       <c r="B328" s="7">
         <v>40893</v>
       </c>
@@ -7678,7 +7689,7 @@
       </c>
       <c r="I328" s="8"/>
     </row>
-    <row r="329" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:12">
       <c r="B329" s="7">
         <v>40921</v>
       </c>
@@ -7702,7 +7713,7 @@
       </c>
       <c r="I329" s="8"/>
     </row>
-    <row r="330" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:12">
       <c r="B330" s="7">
         <v>40935</v>
       </c>
@@ -7726,7 +7737,7 @@
       </c>
       <c r="I330" s="8"/>
     </row>
-    <row r="331" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:12">
       <c r="B331" s="7">
         <v>40949</v>
       </c>
@@ -7750,7 +7761,7 @@
       </c>
       <c r="I331" s="8"/>
     </row>
-    <row r="332" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:12">
       <c r="B332" s="7">
         <v>40977</v>
       </c>
@@ -7774,7 +7785,7 @@
       </c>
       <c r="I332" s="8"/>
     </row>
-    <row r="333" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:12">
       <c r="B333" s="7">
         <v>40998</v>
       </c>
@@ -7798,7 +7809,7 @@
       </c>
       <c r="I333" s="8"/>
     </row>
-    <row r="334" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:12">
       <c r="B334" s="7">
         <v>41026</v>
       </c>
@@ -7822,7 +7833,7 @@
       </c>
       <c r="I334" s="8"/>
     </row>
-    <row r="335" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:12">
       <c r="B335" s="7">
         <v>41045</v>
       </c>
@@ -7849,7 +7860,7 @@
       <c r="K335" s="5"/>
       <c r="L335" s="5"/>
     </row>
-    <row r="336" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:12">
       <c r="B336" s="7">
         <v>41054</v>
       </c>
@@ -7873,7 +7884,7 @@
       </c>
       <c r="I336" s="8"/>
     </row>
-    <row r="337" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:9">
       <c r="B337" s="7">
         <v>41075</v>
       </c>
@@ -7897,7 +7908,7 @@
       </c>
       <c r="I337" s="8"/>
     </row>
-    <row r="338" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:9">
       <c r="B338" s="7">
         <v>41103</v>
       </c>
@@ -7921,7 +7932,7 @@
       </c>
       <c r="I338" s="8"/>
     </row>
-    <row r="339" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:9" s="6" customFormat="1">
       <c r="B339" s="7">
         <v>41145</v>
       </c>
@@ -7945,7 +7956,7 @@
       </c>
       <c r="I339" s="8"/>
     </row>
-    <row r="340" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:9" s="6" customFormat="1">
       <c r="B340" s="7">
         <v>41166</v>
       </c>
@@ -7969,7 +7980,7 @@
       </c>
       <c r="I340" s="8"/>
     </row>
-    <row r="341" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:9" s="6" customFormat="1">
       <c r="B341" s="9">
         <v>41180</v>
       </c>
@@ -7993,7 +8004,7 @@
       </c>
       <c r="I341" s="10"/>
     </row>
-    <row r="342" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:9">
       <c r="B342" s="9">
         <v>41193</v>
       </c>
@@ -8017,7 +8028,7 @@
       </c>
       <c r="I342" s="8"/>
     </row>
-    <row r="343" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:9">
       <c r="B343" s="9">
         <v>41208</v>
       </c>
@@ -8041,7 +8052,7 @@
       </c>
       <c r="I343" s="8"/>
     </row>
-    <row r="344" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:9">
       <c r="B344" s="9">
         <v>41229</v>
       </c>
@@ -8065,7 +8076,7 @@
       </c>
       <c r="I344" s="8"/>
     </row>
-    <row r="345" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:9">
       <c r="B345" s="9">
         <v>41243</v>
       </c>
@@ -8089,7 +8100,7 @@
       </c>
       <c r="I345" s="8"/>
     </row>
-    <row r="346" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:9">
       <c r="B346" s="9">
         <v>41257</v>
       </c>
@@ -8113,7 +8124,7 @@
       </c>
       <c r="I346" s="8"/>
     </row>
-    <row r="347" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:9">
       <c r="B347" s="9">
         <v>41285</v>
       </c>
@@ -8137,7 +8148,7 @@
       </c>
       <c r="I347" s="8"/>
     </row>
-    <row r="348" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:9">
       <c r="B348" s="9">
         <v>41299</v>
       </c>
@@ -8161,7 +8172,7 @@
       </c>
       <c r="I348" s="8"/>
     </row>
-    <row r="349" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:9">
       <c r="B349" s="9">
         <v>41327</v>
       </c>
@@ -8183,7 +8194,7 @@
       <c r="H349" s="10"/>
       <c r="I349" s="8"/>
     </row>
-    <row r="350" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:9">
       <c r="B350" s="9">
         <v>41341</v>
       </c>
@@ -8205,7 +8216,7 @@
       <c r="H350" s="10"/>
       <c r="I350" s="8"/>
     </row>
-    <row r="351" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:9">
       <c r="B351" s="9">
         <v>41355</v>
       </c>
@@ -8229,7 +8240,7 @@
       </c>
       <c r="I351" s="8"/>
     </row>
-    <row r="352" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:9">
       <c r="B352" s="9">
         <v>41376</v>
       </c>
@@ -8251,7 +8262,7 @@
       <c r="H352" s="10"/>
       <c r="I352" s="8"/>
     </row>
-    <row r="353" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:10">
       <c r="B353" s="9">
         <v>41390</v>
       </c>
@@ -8276,7 +8287,7 @@
       </c>
       <c r="J353" s="8"/>
     </row>
-    <row r="354" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:10">
       <c r="B354" s="9">
         <v>41411</v>
       </c>
@@ -8301,7 +8312,7 @@
       </c>
       <c r="J354" s="10"/>
     </row>
-    <row r="355" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:10">
       <c r="B355" s="9">
         <v>41432</v>
       </c>
@@ -8326,7 +8337,7 @@
       </c>
       <c r="J355" s="10"/>
     </row>
-    <row r="356" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:10">
       <c r="B356" s="9">
         <v>41453</v>
       </c>
@@ -8351,7 +8362,7 @@
       </c>
       <c r="J356" s="10"/>
     </row>
-    <row r="357" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:10">
       <c r="B357" s="9">
         <v>41467</v>
       </c>
@@ -8376,7 +8387,7 @@
       </c>
       <c r="J357" s="10"/>
     </row>
-    <row r="358" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:10">
       <c r="B358" s="9">
         <v>41488</v>
       </c>
@@ -8399,7 +8410,7 @@
       <c r="I358" s="10"/>
       <c r="J358" s="10"/>
     </row>
-    <row r="359" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:10">
       <c r="B359" s="9">
         <v>41502</v>
       </c>
@@ -8424,7 +8435,7 @@
       <c r="I359" s="10"/>
       <c r="J359" s="10"/>
     </row>
-    <row r="360" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:10">
       <c r="B360" s="9">
         <v>41509</v>
       </c>
@@ -8447,7 +8458,7 @@
       <c r="I360" s="10"/>
       <c r="J360" s="10"/>
     </row>
-    <row r="361" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:10">
       <c r="B361" s="9">
         <v>41515</v>
       </c>
@@ -8472,7 +8483,7 @@
       </c>
       <c r="J361" s="10"/>
     </row>
-    <row r="362" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:10">
       <c r="B362" s="9">
         <v>41522</v>
       </c>
@@ -8497,7 +8508,7 @@
       </c>
       <c r="J362" s="10"/>
     </row>
-    <row r="363" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:10">
       <c r="B363" s="11">
         <v>41530</v>
       </c>
@@ -8520,7 +8531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:10">
       <c r="B364" s="11">
         <v>41536</v>
       </c>
@@ -8543,7 +8554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:10">
       <c r="B365" s="9">
         <v>41544</v>
       </c>
@@ -8568,7 +8579,7 @@
       </c>
       <c r="J365" s="10"/>
     </row>
-    <row r="366" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:10">
       <c r="B366" s="9">
         <v>41565</v>
       </c>
@@ -8595,7 +8606,7 @@
       </c>
       <c r="J366" s="10"/>
     </row>
-    <row r="367" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:10">
       <c r="B367" s="9">
         <v>41586</v>
       </c>
@@ -8620,7 +8631,7 @@
       </c>
       <c r="J367" s="8"/>
     </row>
-    <row r="368" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:10">
       <c r="B368" s="9">
         <v>41607</v>
       </c>
@@ -8645,7 +8656,7 @@
       </c>
       <c r="J368" s="8"/>
     </row>
-    <row r="369" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:10">
       <c r="B369" s="9">
         <v>41621</v>
       </c>
@@ -8670,7 +8681,7 @@
       </c>
       <c r="J369" s="8"/>
     </row>
-    <row r="370" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:10">
       <c r="B370" s="11">
         <v>41656</v>
       </c>
@@ -8693,7 +8704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:10">
       <c r="B371" s="9">
         <v>41670</v>
       </c>
@@ -8718,7 +8729,7 @@
       </c>
       <c r="J371" s="8"/>
     </row>
-    <row r="372" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:10">
       <c r="B372" s="9">
         <v>41691</v>
       </c>
@@ -8743,7 +8754,7 @@
       </c>
       <c r="J372" s="8"/>
     </row>
-    <row r="373" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:10">
       <c r="B373" s="11">
         <v>41712</v>
       </c>
@@ -8766,7 +8777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:10">
       <c r="B374" s="9">
         <v>41726</v>
       </c>
@@ -8791,7 +8802,7 @@
       </c>
       <c r="J374" s="8"/>
     </row>
-    <row r="375" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:10">
       <c r="B375" s="9">
         <v>41740</v>
       </c>
@@ -8816,7 +8827,7 @@
       </c>
       <c r="J375" s="8"/>
     </row>
-    <row r="376" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:10">
       <c r="B376" s="9">
         <v>41768</v>
       </c>
@@ -8841,7 +8852,7 @@
       </c>
       <c r="J376" s="8"/>
     </row>
-    <row r="377" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:10">
       <c r="B377" s="9">
         <v>41795</v>
       </c>
@@ -8866,7 +8877,7 @@
       </c>
       <c r="J377" s="8"/>
     </row>
-    <row r="378" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:10">
       <c r="B378" s="9">
         <v>41817</v>
       </c>
@@ -8891,7 +8902,7 @@
       </c>
       <c r="J378" s="8"/>
     </row>
-    <row r="379" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:10">
       <c r="B379" s="9">
         <v>41838</v>
       </c>
@@ -8916,7 +8927,7 @@
       </c>
       <c r="J379" s="8"/>
     </row>
-    <row r="380" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:10">
       <c r="B380" s="9">
         <v>41873</v>
       </c>
@@ -8941,7 +8952,7 @@
       </c>
       <c r="J380" s="8"/>
     </row>
-    <row r="381" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:10">
       <c r="B381" s="9">
         <v>41887</v>
       </c>
@@ -8966,7 +8977,7 @@
       </c>
       <c r="J381" s="8"/>
     </row>
-    <row r="382" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:10">
       <c r="B382" s="9">
         <v>41908</v>
       </c>
@@ -8991,7 +9002,7 @@
       </c>
       <c r="J382" s="8"/>
     </row>
-    <row r="383" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:10">
       <c r="B383" s="9">
         <v>41922</v>
       </c>
@@ -9016,7 +9027,7 @@
       </c>
       <c r="J383" s="8"/>
     </row>
-    <row r="384" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:10">
       <c r="B384" s="9">
         <v>41936</v>
       </c>
@@ -9041,7 +9052,7 @@
       </c>
       <c r="J384" s="8"/>
     </row>
-    <row r="385" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:10">
       <c r="B385" s="9">
         <v>41957</v>
       </c>
@@ -9064,7 +9075,7 @@
       </c>
       <c r="J385" s="8"/>
     </row>
-    <row r="386" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:10">
       <c r="B386" s="9">
         <v>41971</v>
       </c>
@@ -9087,7 +9098,7 @@
       </c>
       <c r="J386" s="8"/>
     </row>
-    <row r="387" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:10">
       <c r="B387" s="9">
         <v>41985</v>
       </c>
@@ -9110,7 +9121,7 @@
       </c>
       <c r="J387" s="8"/>
     </row>
-    <row r="388" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:10">
       <c r="B388" s="9">
         <v>42020</v>
       </c>
@@ -9135,7 +9146,7 @@
       </c>
       <c r="J388" s="8"/>
     </row>
-    <row r="389" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:10">
       <c r="B389" s="9">
         <v>42034</v>
       </c>
@@ -9160,7 +9171,7 @@
       </c>
       <c r="J389" s="8"/>
     </row>
-    <row r="390" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:10">
       <c r="B390" s="9">
         <v>42062</v>
       </c>
@@ -9185,7 +9196,7 @@
       </c>
       <c r="J390" s="8"/>
     </row>
-    <row r="391" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:10">
       <c r="B391" s="9">
         <v>42076</v>
       </c>
@@ -9210,7 +9221,7 @@
       </c>
       <c r="J391" s="8"/>
     </row>
-    <row r="392" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:10">
       <c r="B392" s="9">
         <v>42090</v>
       </c>
@@ -9235,7 +9246,7 @@
       </c>
       <c r="J392" s="8"/>
     </row>
-    <row r="393" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:10">
       <c r="B393" s="9">
         <v>42111</v>
       </c>
@@ -9260,7 +9271,7 @@
       </c>
       <c r="J393" s="8"/>
     </row>
-    <row r="394" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:10">
       <c r="B394" s="9">
         <v>42146</v>
       </c>
@@ -9285,7 +9296,7 @@
       </c>
       <c r="J394" s="8"/>
     </row>
-    <row r="395" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:10">
       <c r="B395" s="9">
         <v>42167</v>
       </c>
@@ -9310,7 +9321,7 @@
       </c>
       <c r="J395" s="8"/>
     </row>
-    <row r="396" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:10">
       <c r="B396" s="9">
         <v>42188</v>
       </c>
@@ -9335,7 +9346,7 @@
       </c>
       <c r="J396" s="8"/>
     </row>
-    <row r="397" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:10">
       <c r="B397" s="9">
         <v>42209</v>
       </c>
@@ -9360,7 +9371,7 @@
       </c>
       <c r="J397" s="8"/>
     </row>
-    <row r="398" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:10">
       <c r="B398" s="11">
         <v>42237</v>
       </c>
@@ -9383,7 +9394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:10">
       <c r="B399" s="9">
         <v>42258</v>
       </c>
@@ -9408,7 +9419,7 @@
       </c>
       <c r="J399" s="8"/>
     </row>
-    <row r="400" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:10">
       <c r="B400" s="9">
         <v>42272</v>
       </c>
@@ -9433,7 +9444,7 @@
       </c>
       <c r="J400" s="8"/>
     </row>
-    <row r="401" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:10">
       <c r="B401" s="9">
         <v>42286</v>
       </c>
@@ -9458,7 +9469,7 @@
       </c>
       <c r="J401" s="8"/>
     </row>
-    <row r="402" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:10">
       <c r="B402" s="9">
         <v>42300</v>
       </c>
@@ -9483,7 +9494,7 @@
       </c>
       <c r="J402" s="8"/>
     </row>
-    <row r="403" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:10">
       <c r="B403" s="9">
         <v>42321</v>
       </c>
@@ -9508,7 +9519,7 @@
       </c>
       <c r="J403" s="8"/>
     </row>
-    <row r="404" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:10">
       <c r="B404" s="9">
         <v>42335</v>
       </c>
@@ -9533,7 +9544,7 @@
       </c>
       <c r="J404" s="8"/>
     </row>
-    <row r="405" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:10">
       <c r="B405" s="9">
         <v>42349</v>
       </c>
@@ -9558,7 +9569,7 @@
       </c>
       <c r="J405" s="8"/>
     </row>
-    <row r="406" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:10" s="14" customFormat="1">
       <c r="B406" s="13" t="s">
         <v>10</v>
       </c>
@@ -9583,7 +9594,7 @@
       </c>
       <c r="J406" s="13"/>
     </row>
-    <row r="407" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:10">
       <c r="B407" s="9">
         <v>42398</v>
       </c>
@@ -9608,7 +9619,7 @@
       </c>
       <c r="J407" s="8"/>
     </row>
-    <row r="408" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:10">
       <c r="B408" s="9">
         <v>42419</v>
       </c>
@@ -9633,7 +9644,7 @@
       </c>
       <c r="J408" s="8"/>
     </row>
-    <row r="409" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:10">
       <c r="B409" s="9">
         <v>42447</v>
       </c>
@@ -9658,7 +9669,7 @@
       </c>
       <c r="J409" s="8"/>
     </row>
-    <row r="410" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:10">
       <c r="B410" s="9">
         <v>42468</v>
       </c>
@@ -9683,7 +9694,7 @@
       </c>
       <c r="J410" s="8"/>
     </row>
-    <row r="411" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:10">
       <c r="B411" s="9">
         <v>42482</v>
       </c>
@@ -9708,7 +9719,7 @@
       </c>
       <c r="J411" s="8"/>
     </row>
-    <row r="412" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:10">
       <c r="B412" s="9">
         <v>42503</v>
       </c>
@@ -9733,7 +9744,7 @@
       </c>
       <c r="J412" s="8"/>
     </row>
-    <row r="413" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:10">
       <c r="B413" s="15" t="s">
         <v>11</v>
       </c>
@@ -9758,7 +9769,7 @@
       </c>
       <c r="J413" s="15"/>
     </row>
-    <row r="414" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:10">
       <c r="B414" s="9">
         <v>42545</v>
       </c>
@@ -9783,7 +9794,7 @@
       </c>
       <c r="J414" s="8"/>
     </row>
-    <row r="415" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:10">
       <c r="B415" s="9">
         <v>42559</v>
       </c>
@@ -9808,7 +9819,7 @@
       </c>
       <c r="J415" s="8"/>
     </row>
-    <row r="416" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:10">
       <c r="B416" s="9">
         <v>42573</v>
       </c>
@@ -9832,7 +9843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="417" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:10">
       <c r="B417" s="9">
         <v>42594</v>
       </c>
@@ -9857,7 +9868,7 @@
       </c>
       <c r="J417" s="8"/>
     </row>
-    <row r="418" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:10">
       <c r="B418" s="9">
         <v>42636</v>
       </c>
@@ -9882,7 +9893,7 @@
       </c>
       <c r="J418" s="8"/>
     </row>
-    <row r="419" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:10">
       <c r="B419" s="9">
         <v>42657</v>
       </c>
@@ -9907,7 +9918,7 @@
       </c>
       <c r="J419" s="8"/>
     </row>
-    <row r="420" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:10">
       <c r="B420" s="9">
         <v>42671</v>
       </c>
@@ -9932,7 +9943,7 @@
       </c>
       <c r="J420" s="8"/>
     </row>
-    <row r="421" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:10">
       <c r="B421" s="9">
         <v>42685</v>
       </c>
@@ -9957,7 +9968,7 @@
       </c>
       <c r="J421" s="8"/>
     </row>
-    <row r="422" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:10">
       <c r="B422" s="9">
         <v>42699</v>
       </c>
@@ -9982,7 +9993,7 @@
       </c>
       <c r="J422" s="8"/>
     </row>
-    <row r="423" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:10">
       <c r="B423" s="9">
         <v>42713</v>
       </c>
@@ -10007,7 +10018,7 @@
       </c>
       <c r="J423" s="8"/>
     </row>
-    <row r="424" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:10">
       <c r="B424" s="9">
         <v>42748</v>
       </c>
@@ -10032,7 +10043,7 @@
       </c>
       <c r="J424" s="8"/>
     </row>
-    <row r="425" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:10">
       <c r="B425" s="13" t="s">
         <v>12</v>
       </c>
@@ -10057,7 +10068,7 @@
       </c>
       <c r="J425" s="17"/>
     </row>
-    <row r="426" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:10">
       <c r="B426" s="9">
         <v>42783</v>
       </c>
@@ -10081,7 +10092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="427" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:10">
       <c r="B427" s="9">
         <v>42804</v>
       </c>
@@ -10106,7 +10117,7 @@
       </c>
       <c r="J427" s="8"/>
     </row>
-    <row r="428" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:10">
       <c r="B428" s="9">
         <v>42832</v>
       </c>
@@ -10131,7 +10142,7 @@
       </c>
       <c r="J428" s="8"/>
     </row>
-    <row r="429" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="429" spans="2:10">
       <c r="B429" s="9">
         <v>42853</v>
       </c>
@@ -10164,8 +10175,13 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10175,11 +10191,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10189,10 +10210,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>